--- a/HDI - Raw data.xlsx
+++ b/HDI - Raw data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyuguo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyuguo/Github-database/OHI-IDI-Animal&amp;Environmental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A851BB88-64DF-1747-B295-E4B2F4B9FA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9EB847-DC16-4141-9A13-AD43D1057441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5720" yWindow="-21100" windowWidth="10000" windowHeight="21100" xr2:uid="{4053D9AA-6E65-4747-9C39-F7A494B09AB5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{4053D9AA-6E65-4747-9C39-F7A494B09AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -986,9 +986,6 @@
     <t>ZAF</t>
   </si>
   <si>
-    <t>KOR</t>
-  </si>
-  <si>
     <t>ESP</t>
   </si>
   <si>
@@ -1072,6 +1069,10 @@
   </si>
   <si>
     <t>Dominica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOR</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1468,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB2182E-08BE-2448-8897-6AB924B7A0B3}">
   <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2018,7 +2019,7 @@
         <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
         <v>119</v>
@@ -2111,10 +2112,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
@@ -2151,7 +2152,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" t="s">
@@ -2713,7 +2714,9 @@
       <c r="A92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="C92" t="s">
         <v>65</v>
       </c>
@@ -3635,22 +3638,17 @@
       <c r="A160" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B160" t="s">
-        <v>314</v>
-      </c>
       <c r="C160" t="s">
         <v>157</v>
       </c>
-      <c r="D160" s="2">
-        <v>0.433</v>
-      </c>
+      <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B161" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C161" t="s">
         <v>65</v>
@@ -3664,7 +3662,7 @@
         <v>71</v>
       </c>
       <c r="B162" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C162" t="s">
         <v>118</v>
@@ -3678,7 +3676,7 @@
         <v>172</v>
       </c>
       <c r="B163" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C163" t="s">
         <v>157</v>
@@ -3704,7 +3702,7 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C165" t="s">
         <v>65</v>
@@ -3718,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C166" t="s">
         <v>65</v>
@@ -3744,7 +3742,7 @@
         <v>125</v>
       </c>
       <c r="B168" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C168" t="s">
         <v>119</v>
@@ -3758,7 +3756,7 @@
         <v>164</v>
       </c>
       <c r="B169" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C169" t="s">
         <v>157</v>
@@ -3772,7 +3770,7 @@
         <v>79</v>
       </c>
       <c r="B170" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C170" t="s">
         <v>118</v>
@@ -3786,7 +3784,7 @@
         <v>141</v>
       </c>
       <c r="B171" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C171" t="s">
         <v>119</v>
@@ -3800,7 +3798,7 @@
         <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C172" t="s">
         <v>157</v>
@@ -3825,7 +3823,7 @@
         <v>67</v>
       </c>
       <c r="B174" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C174" t="s">
         <v>118</v>
@@ -3839,7 +3837,7 @@
         <v>94</v>
       </c>
       <c r="B175" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C175" t="s">
         <v>118</v>
@@ -3853,7 +3851,7 @@
         <v>52</v>
       </c>
       <c r="B176" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C176" t="s">
         <v>65</v>
@@ -3867,7 +3865,7 @@
         <v>110</v>
       </c>
       <c r="B177" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C177" t="s">
         <v>118</v>
@@ -3881,7 +3879,7 @@
         <v>160</v>
       </c>
       <c r="B178" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C178" t="s">
         <v>157</v>
@@ -3895,7 +3893,7 @@
         <v>76</v>
       </c>
       <c r="B179" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C179" t="s">
         <v>118</v>
@@ -3909,7 +3907,7 @@
         <v>29</v>
       </c>
       <c r="B180" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C180" t="s">
         <v>65</v>
@@ -3923,7 +3921,7 @@
         <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C181" t="s">
         <v>65</v>
@@ -3937,7 +3935,7 @@
         <v>16</v>
       </c>
       <c r="B182" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C182" t="s">
         <v>65</v>
@@ -3951,7 +3949,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C183" t="s">
         <v>65</v>
@@ -3965,7 +3963,7 @@
         <v>104</v>
       </c>
       <c r="B184" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C184" t="s">
         <v>118</v>
@@ -4003,7 +4001,7 @@
         <v>116</v>
       </c>
       <c r="B187" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C187" t="s">
         <v>118</v>
@@ -4029,7 +4027,7 @@
         <v>146</v>
       </c>
       <c r="B189" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C189" t="s">
         <v>119</v>
@@ -4043,7 +4041,7 @@
         <v>150</v>
       </c>
       <c r="B190" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C190" t="s">
         <v>119</v>
